--- a/02_MasterWifoMannheim/03_Courses/Course140.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course140.xlsx
@@ -1,37 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3005A715B7A3B11599328764409F9D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8A99A32-3049-471C-AD5A-BA0EF446552F}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>MKT 570 Marketing of Innovations</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>For students seeking knowledge in innovation and the management of new products and services, this course explores the complex challenges organizations face in bringing innovative ideas to market. How do you know which idea is the right one? What marketing strategy and which marketing program should be employed? What are the most effective consumer insights and research methods? The course will combine theory, case studies, in-class team exercises, guest lectures, and practical tools and techniques – all of which students will use in their team innovation challenge project which is the primary course deliverable.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>At the end of this course, students will be able to develop and critically evaluate the marketing strategy for a product or service innovation. This course will enable students to apply frameworks, concepts, and methods for crafting marketing strategies around innovations. Students will apply their knowledge in an innovation challenge case.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Marketing and Sales (MKT)</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on registration:Student Portal² (information on central registration process) and website of the chair (course information)</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lecture 2 6</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Innovation Challenge Pitch: 30% Innovation Challenge Final Presentation: 70%</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Sabine Kuester</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., K&amp;W, M.Sc. Econ.</t>
+  </si>
+  <si>
+    <t>MKT 5|</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +151,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,217 +475,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MKT 570 Marketing of Innovations</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>For students seeking knowledge in innovation and the management of new products and services, this course explores the complex challenges organizations face in bringing innovative ideas to market. How do you know which idea is the right one? What marketing strategy and which marketing program should be employed? What are the most effective consumer insights and research methods? The course will combine theory, case studies, in-class team exercises, guest lectures, and practical tools and techniques – all of which students will use in their team innovation challenge project which is the primary course deliverable.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>At the end of this course, students will be able to develop and critically evaluate the marketing strategy for a product or service innovation. This course will enable students to apply frameworks, concepts, and methods for crafting marketing strategies around innovations. Students will apply their knowledge in an innovation challenge case.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marketing and Sales (MKT)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MKT 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Further Information on registration:Student Portal² (information on central registration process) and website of the chair (course information)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lecture 2 6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Innovation Challenge Pitch: 30% Innovation Challenge Final Presentation: 70%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Sabine Kuester</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., K&amp;W, M.Sc. Econ.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
